--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -673,14 +673,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1.72</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.85</v>
+        <v>3.68</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.08</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.09</v>
+        <v>2.49</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.61</v>
+        <v>2.12</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>1.72</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.68</v>
+        <v>1.85</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.08</v>
+        <v>3.55</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.49</v>
+        <v>5.09</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.12</v>
+        <v>4.61</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.14</v>
+        <v>1.69</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.47</v>
+        <v>2.03</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.53</v>
+        <v>3.35</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.92</v>
+        <v>4.84</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.11</v>
+        <v>3.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.61</v>
+        <v>4.14</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>3.47</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.42</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.84</v>
+        <v>3.53</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.04</v>
+        <v>1.92</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.82</v>
+        <v>2.11</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
         </is>
       </c>
     </row>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.59</v>
+        <v>2.02</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.05</v>
+        <v>3.38</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 18:38</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>3.92</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.22</v>
+        <v>1.61</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.12</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.38</v>
+        <v>3.84</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:38</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.33</v>
+        <v>6.04</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.92</v>
+        <v>5.82</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.69</v>
+        <v>2.08</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.03</v>
+        <v>2.59</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.59</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:40</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.84</v>
+        <v>3.63</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.92</v>
+        <v>3.04</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>2.07</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.57</v>
+        <v>2.87</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.48</v>
+        <v>3.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.07</v>
+        <v>2.92</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.87</v>
+        <v>3.57</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.41</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:39</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.31</v>
+        <v>2.48</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.67</v>
+        <v>1.88</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.59</v>
+        <v>4.45</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.59</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.54</v>
+        <v>3.98</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.13</v>
+        <v>4.63</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 12:29</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.45</v>
+        <v>2.59</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.98</v>
+        <v>4.54</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.63</v>
+        <v>4.13</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.49</v>
+        <v>1.36</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 18:50</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.19</v>
+        <v>3.91</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.34</v>
+        <v>4.89</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 07:08</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.55</v>
+        <v>6.37</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.92</v>
+        <v>9.02</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.12</v>
+        <v>2.18</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.74</v>
+        <v>2.49</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 07:08</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Anadia</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.55</v>
+        <v>3.12</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>4.74</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:50</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.91</v>
+        <v>3.17</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.89</v>
+        <v>3.64</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>6.37</v>
+        <v>2.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>9.02</v>
+        <v>1.78</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.61</v>
+        <v>2.41</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:04</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.69</v>
+        <v>3.28</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.99</v>
+        <v>3.76</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.67</v>
+        <v>3.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,14 +5457,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.41</v>
+        <v>1.61</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:04</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.28</v>
+        <v>3.69</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.34</v>
+        <v>3.95</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.76</v>
+        <v>4.99</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.03</v>
+        <v>5.67</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.73</v>
+        <v>3.37</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.85</v>
+        <v>3.94</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.53</v>
+        <v>3.54</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-amora/bendWnLe/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-caldas-sc/jVrlY8jq/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1.91</v>
+        <v>4.35</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.25</v>
+        <v>4.85</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.94</v>
+        <v>1.79</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.54</v>
+        <v>1.79</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-caldas-sc/jVrlY8jq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-academica/pl6LxkrS/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.35</v>
+        <v>1.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>29/09/2023 13:02</t>
+          <t>29/09/2023 13:04</t>
         </is>
       </c>
       <c r="L65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>30/09/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>29/09/2023 13:04</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>30/09/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>4.85</v>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>30/09/2023 16:59</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>29/09/2023 13:02</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>30/09/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>1.79</v>
-      </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>29/09/2023 13:02</t>
+          <t>29/09/2023 13:04</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.79</v>
+        <v>5.53</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-academica/pl6LxkrS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-amora/bendWnLe/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>SC Vianense</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.19</v>
+        <v>1.65</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/10/2023 14:05</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.23</v>
+        <v>3.67</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/10/2023 13:49</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.28</v>
+        <v>5.57</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.29</v>
+        <v>6.01</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/10/2023 14:05</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-oliveira-hospital/ULshXS5k/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.67</v>
+        <v>3.23</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 13:49</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.57</v>
+        <v>3.28</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.01</v>
+        <v>2.29</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-oliveira-hospital/ULshXS5k/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,98 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-varzim/xSf0UBXH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45205.85416666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:23</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:23</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>05/10/2023 11:58</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:23</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-covilha/viPrfjD2/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>4.14</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.68</v>
+        <v>3.47</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.08</v>
+        <v>3.42</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.31</v>
+        <v>3.53</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.49</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.55</v>
+        <v>3.59</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.42</v>
+        <v>3.35</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>5.09</v>
+        <v>4.84</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.61</v>
+        <v>3.92</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.03</v>
+        <v>1.85</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.59</v>
+        <v>3.55</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.84</v>
+        <v>5.09</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.92</v>
+        <v>4.61</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>4.14</v>
+        <v>3.05</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>3.47</v>
+        <v>3.68</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.42</v>
+        <v>3.08</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.53</v>
+        <v>3.31</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.92</v>
+        <v>2.49</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
         </is>
       </c>
     </row>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>2.59</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.84</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:40</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.04</v>
+        <v>3.63</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.82</v>
+        <v>3.04</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>3.84</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.63</v>
+        <v>6.04</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.04</v>
+        <v>5.82</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.07</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.87</v>
+        <v>3.57</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.41</v>
+        <v>3.1</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:39</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.31</v>
+        <v>2.48</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>1.69</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.57</v>
+        <v>1.56</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.09</v>
+        <v>3.54</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>3.83</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.48</v>
+        <v>4.93</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.26</v>
+        <v>6.81</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.69</v>
+        <v>2.07</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.56</v>
+        <v>2.87</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.83</v>
+        <v>3.41</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:39</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.93</v>
+        <v>3.31</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.81</v>
+        <v>2.49</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 12:29</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.45</v>
+        <v>2.59</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Trofense</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.84</v>
+        <v>1.91</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.09</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.41</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.64</v>
+        <v>3.98</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.17</v>
+        <v>4.63</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>2.84</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.35</v>
+        <v>3.09</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>3.41</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.98</v>
+        <v>2.64</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.63</v>
+        <v>4.17</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
         </is>
       </c>
     </row>
@@ -3149,30 +3149,30 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Felgueiras</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.67</v>
+        <v>1.9</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,31 +3180,31 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.24</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.54</v>
+        <v>3.59</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.52</v>
+        <v>4.54</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.59</v>
+        <v>4.13</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.7</v>
+        <v>3.27</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.54</v>
+        <v>3.61</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.13</v>
+        <v>4.45</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
-        <v>3.04</v>
+        <v>1.55</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.77</v>
+        <v>1.36</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 18:50</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.27</v>
+        <v>4.89</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.46</v>
+        <v>6.37</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.11</v>
+        <v>9.02</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>1.55</v>
+        <v>2.18</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>2.49</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:50</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.91</v>
+        <v>3.19</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.89</v>
+        <v>3.34</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 07:08</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>6.37</v>
+        <v>3.55</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>9.02</v>
+        <v>2.92</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.18</v>
+        <v>3.04</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.49</v>
+        <v>3.77</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 07:08</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.55</v>
+        <v>2.46</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.92</v>
+        <v>2.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.41</v>
+        <v>1.61</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.28</v>
+        <v>3.69</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.34</v>
+        <v>3.95</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.76</v>
+        <v>4.99</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.03</v>
+        <v>5.67</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,14 +5457,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.61</v>
+        <v>2.41</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:04</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.69</v>
+        <v>3.28</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.99</v>
+        <v>3.76</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.67</v>
+        <v>3.03</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.6</v>
+        <v>2.19</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>01/10/2023 15:41</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>01/10/2023 15:40</t>
+          <t>01/10/2023 13:49</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.88</v>
+        <v>3.28</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>01/10/2023 15:41</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-lusitania-fc/4EdhWX25/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Trofense</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.49</v>
+        <v>3.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:41</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:40</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.39</v>
+        <v>2.88</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.17</v>
+        <v>2.32</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:41</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-trofense/byddViIB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-lusitania-fc/4EdhWX25/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I69" t="n">
         <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.19</v>
+        <v>2.26</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.1</v>
+        <v>2.49</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 14:05</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.52</v>
+        <v>3.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 13:49</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.28</v>
+        <v>3.39</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.29</v>
+        <v>3.17</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 14:05</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-trofense/byddViIB/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,374 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/academica-covilha/viPrfjD2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:37</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:37</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-atletico-cp/nHSjhUsF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-alverca/4h7HZLRm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45206.70833333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:05</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:15</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:05</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:15</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:05</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:15</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-fc-felgueiras/pYHRpXHb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:06</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-canelas-2010/OITIngmn/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>2.07</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.57</v>
+        <v>2.87</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:39</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.48</v>
+        <v>3.31</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Pero Pinheiro</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>1.69</v>
+        <v>2.92</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.56</v>
+        <v>3.57</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.54</v>
+        <v>3.09</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.83</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.93</v>
+        <v>2.48</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>6.81</v>
+        <v>2.26</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.27</v>
+        <v>4.06</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.89</v>
+        <v>5.14</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.94</v>
+        <v>1.69</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.06</v>
+        <v>3.83</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.68</v>
+        <v>4.93</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.14</v>
+        <v>6.81</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
         </is>
       </c>
     </row>
@@ -2321,62 +2321,62 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>3</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
       <c r="J21" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>12/08/2023 22:04</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
         <v>2.07</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>12/08/2023 22:05</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>2.87</v>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.41</v>
+        <v>3.27</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:39</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.31</v>
+        <v>3.91</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.49</v>
+        <v>3.89</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Anadia</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>3</v>
-      </c>
       <c r="J37" t="n">
-        <v>1.55</v>
+        <v>3.12</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.36</v>
+        <v>4.74</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/08/2023 18:50</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.91</v>
+        <v>3.17</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>4.89</v>
+        <v>3.64</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.37</v>
+        <v>2.4</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>9.02</v>
+        <v>1.78</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.74</v>
+        <v>2.49</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.39</v>
+        <v>3.19</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.17</v>
+        <v>3.34</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 07:08</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.49</v>
+        <v>1.36</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 18:50</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.19</v>
+        <v>3.91</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.34</v>
+        <v>4.89</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 07:08</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.55</v>
+        <v>6.37</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.92</v>
+        <v>9.02</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Covilha</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
       <c r="J41" t="n">
-        <v>3.12</v>
+        <v>2.01</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.74</v>
+        <v>1.74</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.17</v>
+        <v>3.39</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.4</v>
+        <v>3.58</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.78</v>
+        <v>4.3</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.41</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.27</v>
+        <v>4.15</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.52</v>
+        <v>4.8</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>3.16</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.18</v>
+        <v>1.93</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.02</v>
+        <v>3.44</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.46</v>
+        <v>4.81</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.36</v>
+        <v>4.14</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.33</v>
+        <v>3.47</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.74</v>
+        <v>3.89</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:42</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.94</v>
+        <v>4.91</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.47</v>
+        <v>6.43</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
         <v>2</v>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Amora</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
       <c r="J47" t="n">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.08</v>
+        <v>3.33</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.24</v>
+        <v>3.74</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:42</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.53</v>
+        <v>3.94</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.13</v>
+        <v>4.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>1.79</v>
+        <v>3.16</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.93</v>
+        <v>3.18</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.44</v>
+        <v>3.02</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.81</v>
+        <v>2.46</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.14</v>
+        <v>2.36</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.15</v>
+        <v>4.27</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.8</v>
+        <v>3.52</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>3</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>1º Dezembro</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
       <c r="J50" t="n">
-        <v>1.77</v>
+        <v>2.86</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.57</v>
+        <v>3.75</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.89</v>
+        <v>3.24</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.91</v>
+        <v>2.53</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>6.43</v>
+        <v>2.13</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.81</v>
+        <v>2.07</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.67</v>
+        <v>2.41</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:11</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.47</v>
+        <v>3.28</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.91</v>
+        <v>3.34</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:11</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.6</v>
+        <v>3.76</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.17</v>
+        <v>3.03</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 14:37</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-trofense/GvoxzG3t/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,63 +5457,63 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>2.41</v>
+        <v>1.67</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:11</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.34</v>
+        <v>3.91</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:11</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>3.76</v>
+        <v>4.6</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>3.03</v>
+        <v>5.17</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 14:37</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-trofense/GvoxzG3t/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>4.47</v>
+        <v>2.12</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.82</v>
+        <v>1.91</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.58</v>
+        <v>3.25</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.81</v>
+        <v>3.63</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.94</v>
+        <v>4.5</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-atletico-cp/vi3DvBDF/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.12</v>
+        <v>2.6</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.91</v>
+        <v>2.22</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 17:54</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 17:51</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.63</v>
+        <v>2.88</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 17:54</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-atletico-cp/vi3DvBDF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-caldas-sc/rP94tXr3/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.22</v>
+        <v>4.81</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:54</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.34</v>
+        <v>3.75</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:51</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.4</v>
+        <v>1.74</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:54</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-caldas-sc/rP94tXr3/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-sporting-lisbon/YD2HwVSL/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>3.35</v>
+        <v>4.47</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.81</v>
+        <v>3.82</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.19</v>
+        <v>3.58</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.26</v>
+        <v>1.81</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.74</v>
+        <v>1.94</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-sporting-lisbon/YD2HwVSL/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
         </is>
       </c>
     </row>
@@ -7354,6 +7354,374 @@
       <c r="V75" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-canelas-2010/OITIngmn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45207.5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>08/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-pero-pinheiro/hfTngAS8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:09</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:09</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:09</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-1-dezembro/OtjKz2Cs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-anadia/AFPEmZXu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45207.66666666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.84</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.63</v>
+        <v>6.04</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.04</v>
+        <v>5.82</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>2.59</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.84</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:40</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.04</v>
+        <v>3.63</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.82</v>
+        <v>3.04</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2.07</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.87</v>
+        <v>3.57</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.41</v>
+        <v>3.1</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:39</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.31</v>
+        <v>2.48</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.49</v>
+        <v>2.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.92</v>
+        <v>2.07</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.57</v>
+        <v>2.87</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:39</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.48</v>
+        <v>3.31</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.04</v>
+        <v>2.01</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.77</v>
+        <v>1.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.14</v>
+        <v>3.39</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.27</v>
+        <v>4.17</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.46</v>
+        <v>3.58</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.11</v>
+        <v>4.3</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,14 +4169,14 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.01</v>
+        <v>3.04</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.74</v>
+        <v>3.77</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.39</v>
+        <v>3.14</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.17</v>
+        <v>3.27</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.58</v>
+        <v>2.46</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.3</v>
+        <v>2.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.3</v>
+        <v>3.47</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.89</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.15</v>
+        <v>4.91</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.8</v>
+        <v>6.43</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.47</v>
+        <v>3.3</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.89</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.91</v>
+        <v>4.15</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.43</v>
+        <v>4.8</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,98 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:15</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:00</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:15</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-braga/hbHVqiX4/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.67</v>
+        <v>1.88</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.59</v>
+        <v>4.45</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 12:29</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.45</v>
+        <v>2.59</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:09</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.19</v>
+        <v>3.84</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.49</v>
+        <v>4.52</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:09</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.4</v>
+        <v>5.35</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.66</v>
+        <v>8.5</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:09</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-1-dezembro/OtjKz2Cs/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Sanjoanense</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
       <c r="J79" t="n">
-        <v>1.58</v>
+        <v>2.16</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:09</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.84</v>
+        <v>3.19</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.52</v>
+        <v>3.49</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:09</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.35</v>
+        <v>3.4</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>8.5</v>
+        <v>3.66</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:09</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-1-dezembro/OtjKz2Cs/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,926 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-braga/hbHVqiX4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45226.85416666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>26/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-amora/COcxVctJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-caldas-sc/rq6LYusf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:34</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:34</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:34</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:50</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45228.66666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:08</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:49</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:08</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45228.75</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-trofense/WlGZrBnB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>2</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-varzim/KCXBPMoj/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:57</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.84</v>
+        <v>3.43</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:57</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>5.35</v>
+        <v>3.91</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>8.5</v>
+        <v>5.22</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:57</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-anadia/AFPEmZXu/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.61</v>
+        <v>1.4</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 15:57</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.43</v>
+        <v>3.84</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.22</v>
+        <v>4.52</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>08/10/2023 15:57</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.91</v>
+        <v>5.35</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>5.22</v>
+        <v>8.5</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>08/10/2023 15:57</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-anadia/AFPEmZXu/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,98 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-varzim/KCXBPMoj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45233.85416666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-oliveira-hospital/vVkOh1YP/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V91"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>2.59</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.84</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:40</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.04</v>
+        <v>3.63</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.82</v>
+        <v>3.04</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>3.84</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.63</v>
+        <v>6.04</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.04</v>
+        <v>5.82</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 19:28</t>
+          <t>12/08/2023 20:55</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.12</v>
+        <v>3.44</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 19:28</t>
+          <t>12/08/2023 20:55</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.19</v>
+        <v>4.64</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.57</v>
+        <v>4.33</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 19:28</t>
+          <t>12/08/2023 20:55</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-ad-fafe/06c0DJdQ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-academica/fLMuHGFi/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>2</v>
-      </c>
       <c r="J15" t="n">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 20:55</t>
+          <t>12/08/2023 19:28</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.44</v>
+        <v>3.12</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 20:55</t>
+          <t>12/08/2023 19:28</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>4.64</v>
+        <v>3.19</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.33</v>
+        <v>3.57</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 20:55</t>
+          <t>12/08/2023 19:28</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-academica/fLMuHGFi/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-ad-fafe/06c0DJdQ/</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1961,63 +1961,63 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>1.96</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.57</v>
+        <v>2.07</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.09</v>
+        <v>3.25</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.1</v>
+        <v>3.27</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.48</v>
+        <v>3.91</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.26</v>
+        <v>3.89</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
       <c r="J18" t="n">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.87</v>
+        <v>1.56</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.41</v>
+        <v>3.83</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:39</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.31</v>
+        <v>4.93</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.49</v>
+        <v>6.81</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
         </is>
       </c>
     </row>
@@ -2137,34 +2137,34 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Trofense</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
       <c r="J19" t="n">
-        <v>1.94</v>
+        <v>2.07</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.65</v>
+        <v>2.87</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -2172,36 +2172,36 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4.06</v>
+        <v>3.41</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:39</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.68</v>
+        <v>3.31</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>5.14</v>
+        <v>2.49</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>2</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Pero Pinheiro</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
       <c r="J20" t="n">
-        <v>1.69</v>
+        <v>2.92</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.56</v>
+        <v>3.57</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.54</v>
+        <v>3.09</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.83</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>4.93</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>6.81</v>
+        <v>2.26</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.27</v>
+        <v>4.06</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.89</v>
+        <v>5.14</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,14 +2881,14 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.42</v>
+        <v>3.85</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.45</v>
+        <v>4.63</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 12:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.98</v>
+        <v>3.52</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.63</v>
+        <v>2.59</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.67</v>
+        <v>1.88</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.24</v>
+        <v>3.27</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.54</v>
+        <v>3.42</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.59</v>
+        <v>4.45</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>3.12</v>
+        <v>2.18</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4.74</v>
+        <v>2.49</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.64</v>
+        <v>3.34</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 07:08</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>2.4</v>
+        <v>3.55</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.78</v>
+        <v>2.92</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.49</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 18:50</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.19</v>
+        <v>3.91</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.34</v>
+        <v>4.89</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 07:08</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.55</v>
+        <v>6.37</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>2.92</v>
+        <v>9.02</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.55</v>
+        <v>2.01</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:50</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.91</v>
+        <v>3.39</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.89</v>
+        <v>4.17</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>6.37</v>
+        <v>3.58</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>9.02</v>
+        <v>4.3</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,14 +4077,14 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.01</v>
+        <v>3.04</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.74</v>
+        <v>3.77</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.39</v>
+        <v>3.14</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.17</v>
+        <v>3.27</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.58</v>
+        <v>2.46</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.3</v>
+        <v>2.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>3.77</v>
+        <v>4.74</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.27</v>
+        <v>3.64</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.81</v>
+        <v>4.15</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.14</v>
+        <v>4.8</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.15</v>
+        <v>4.81</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.8</v>
+        <v>4.14</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>3.16</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.8</v>
+        <v>3.18</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.33</v>
+        <v>3.02</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.74</v>
+        <v>3.27</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:42</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.94</v>
+        <v>2.46</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.47</v>
+        <v>2.36</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>3.16</v>
+        <v>2</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>3.18</v>
+        <v>1.8</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.02</v>
+        <v>3.33</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.27</v>
+        <v>3.74</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:42</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.46</v>
+        <v>3.94</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.36</v>
+        <v>4.47</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,14 +4905,14 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1.9</v>
+        <v>2.86</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.14</v>
+        <v>3.75</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.37</v>
+        <v>3.08</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.41</v>
+        <v>3.24</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.27</v>
+        <v>2.53</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.52</v>
+        <v>2.13</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.86</v>
+        <v>1.9</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.75</v>
+        <v>2.14</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.08</v>
+        <v>3.37</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.24</v>
+        <v>3.41</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.53</v>
+        <v>4.27</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.13</v>
+        <v>3.52</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.41</v>
+        <v>1.61</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:04</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.28</v>
+        <v>3.69</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.34</v>
+        <v>3.95</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.76</v>
+        <v>4.99</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.03</v>
+        <v>5.67</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.61</v>
+        <v>2.41</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:04</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.69</v>
+        <v>3.28</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.99</v>
+        <v>3.76</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.67</v>
+        <v>3.03</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J77" t="n">
-        <v>1.89</v>
+        <v>2.16</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:57</t>
+          <t>08/10/2023 15:09</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.43</v>
+        <v>3.19</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.22</v>
+        <v>3.49</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:57</t>
+          <t>08/10/2023 15:09</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.91</v>
+        <v>3.4</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.22</v>
+        <v>3.66</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>08/10/2023 15:57</t>
+          <t>08/10/2023 15:09</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-anadia/AFPEmZXu/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-1-dezembro/OtjKz2Cs/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1.58</v>
+        <v>1.89</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>1.4</v>
+        <v>1.61</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.84</v>
+        <v>3.43</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.52</v>
+        <v>4.22</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:57</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>5.35</v>
+        <v>3.91</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>8.5</v>
+        <v>5.22</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>08/10/2023 15:37</t>
+          <t>08/10/2023 15:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-anadia/AFPEmZXu/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 15:09</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.19</v>
+        <v>3.84</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.49</v>
+        <v>4.52</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 15:09</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.4</v>
+        <v>5.35</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.66</v>
+        <v>8.5</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 15:09</t>
+          <t>08/10/2023 15:37</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-1-dezembro/OtjKz2Cs/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sanjoanense/6sJNoD2h/</t>
         </is>
       </c>
     </row>
@@ -8826,6 +8826,190 @@
       <c r="V91" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-oliveira-hospital/vVkOh1YP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-sporting-lisbon/0viKgsJJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45234.66666666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>03/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:38</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-varzim/EBE2npg3/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.84</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.63</v>
+        <v>6.04</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.04</v>
+        <v>5.82</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>2.59</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.84</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:40</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.04</v>
+        <v>3.63</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.82</v>
+        <v>3.04</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
       <c r="J14" t="n">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 20:55</t>
+          <t>12/08/2023 19:28</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.44</v>
+        <v>3.12</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 20:55</t>
+          <t>12/08/2023 19:28</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.64</v>
+        <v>3.19</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>4.33</v>
+        <v>3.57</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 20:55</t>
+          <t>12/08/2023 19:28</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-academica/fLMuHGFi/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-ad-fafe/06c0DJdQ/</t>
         </is>
       </c>
     </row>
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.13</v>
+        <v>1.94</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12/08/2023 19:28</t>
+          <t>12/08/2023 20:55</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.12</v>
+        <v>3.44</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>12/08/2023 19:28</t>
+          <t>12/08/2023 20:55</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>3.19</v>
+        <v>4.64</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>3.57</v>
+        <v>4.33</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>12/08/2023 19:28</t>
+          <t>12/08/2023 20:55</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-ad-fafe/06c0DJdQ/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-academica/fLMuHGFi/</t>
         </is>
       </c>
     </row>
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1976,15 +1976,15 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1992,15 +1992,15 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.27</v>
+        <v>4.06</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -2008,16 +2008,16 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.89</v>
+        <v>5.14</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>4.93</v>
+        <v>3.91</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>6.81</v>
+        <v>3.89</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
       <c r="J19" t="n">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.87</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>3.54</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.41</v>
+        <v>3.83</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:39</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.31</v>
+        <v>4.93</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.49</v>
+        <v>6.81</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.92</v>
+        <v>2.07</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.57</v>
+        <v>2.87</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3.41</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:39</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>3.31</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.26</v>
+        <v>2.49</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.94</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.65</v>
+        <v>3.57</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.06</v>
+        <v>3.1</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.14</v>
+        <v>2.26</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 12:29</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.98</v>
+        <v>3.52</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.63</v>
+        <v>2.59</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>2.09</v>
+        <v>1.91</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.67</v>
+        <v>1.75</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.24</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.54</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.52</v>
+        <v>3.98</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.59</v>
+        <v>4.63</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>1º Dezembro</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.77</v>
+        <v>2.86</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.57</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.89</v>
+        <v>3.24</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.91</v>
+        <v>2.53</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>6.43</v>
+        <v>2.13</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:42</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.15</v>
+        <v>3.94</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.8</v>
+        <v>4.47</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>1.79</v>
+        <v>3.16</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.93</v>
+        <v>3.18</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.44</v>
+        <v>3.02</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.81</v>
+        <v>2.46</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.14</v>
+        <v>2.36</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>3.16</v>
+        <v>1.79</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.18</v>
+        <v>1.93</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.02</v>
+        <v>3.44</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.27</v>
+        <v>3.47</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.46</v>
+        <v>4.81</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.36</v>
+        <v>4.14</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.74</v>
+        <v>3.6</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:42</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.94</v>
+        <v>4.15</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.47</v>
+        <v>4.8</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.86</v>
+        <v>1.77</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>3.75</v>
+        <v>1.57</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.24</v>
+        <v>3.89</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>2.53</v>
+        <v>4.91</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>2.13</v>
+        <v>6.43</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.47</v>
+        <v>4.15</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.92</v>
+        <v>6.18</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.36</v>
+        <v>4.15</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 15:49</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,48 +8140,48 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="N84" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
         <v>3.31</v>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S84" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="P84" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:34</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T84" t="n">
-        <v>3.18</v>
+        <v>2.83</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.5</v>
+        <v>2.04</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.56</v>
+        <v>2.4</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.24</v>
+        <v>3.31</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>6.35</v>
+        <v>3.57</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>5.61</v>
+        <v>3.18</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.14</v>
+        <v>3.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.58</v>
+        <v>2.92</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.55</v>
+        <v>2.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.83</v>
+        <v>2.48</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" t="n">
-        <v>4.15</v>
+        <v>1.5</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>6.18</v>
+        <v>1.56</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.5</v>
+        <v>4.24</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 15:49</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.88</v>
+        <v>6.35</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.55</v>
+        <v>5.61</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,558 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/braga-varzim/EBE2npg3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45235.66666666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:01</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:01</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:01</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-trofense/2X6FqrwM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45235.75</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:28</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:28</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:03</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:28</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-lusitania-fc/8YD6o489/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Felgueiras</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.09</v>
+        <v>2.84</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.24</v>
+        <v>3.09</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.54</v>
+        <v>3.41</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.52</v>
+        <v>2.64</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.59</v>
+        <v>4.17</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>1.91</v>
+        <v>2.09</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.75</v>
+        <v>2.67</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.35</v>
+        <v>3.24</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.85</v>
+        <v>3.54</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 12:29</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.98</v>
+        <v>3.52</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.63</v>
+        <v>2.59</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Trofense</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.84</v>
+        <v>1.91</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.09</v>
+        <v>3.35</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.41</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.64</v>
+        <v>3.98</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.17</v>
+        <v>4.63</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Amora</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
       <c r="J44" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.75</v>
+        <v>1.93</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.08</v>
+        <v>3.44</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.24</v>
+        <v>3.47</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.53</v>
+        <v>4.81</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.13</v>
+        <v>4.14</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.33</v>
+        <v>3.08</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.74</v>
+        <v>3.24</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:42</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.94</v>
+        <v>2.53</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.47</v>
+        <v>2.13</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>3.16</v>
+        <v>2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.18</v>
+        <v>1.8</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.02</v>
+        <v>3.33</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.27</v>
+        <v>3.74</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:42</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.46</v>
+        <v>3.94</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.36</v>
+        <v>4.47</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.47</v>
+        <v>3.6</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.81</v>
+        <v>4.15</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.14</v>
+        <v>4.8</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.78</v>
+        <v>2.14</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>3.37</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.6</v>
+        <v>3.41</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.15</v>
+        <v>4.27</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.8</v>
+        <v>3.52</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1.9</v>
+        <v>3.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.14</v>
+        <v>3.18</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.37</v>
+        <v>3.02</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.41</v>
+        <v>3.27</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.27</v>
+        <v>2.46</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.52</v>
+        <v>2.36</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>3.72</v>
+        <v>2.67</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>04/11/2023 18:02</t>
+          <t>04/11/2023 18:01</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>4.39</v>
+        <v>3.01</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.37</v>
+        <v>3.07</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>04/11/2023 18:02</t>
+          <t>04/11/2023 18:01</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.69</v>
+        <v>3.18</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.97</v>
+        <v>2.71</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>04/11/2023 18:02</t>
+          <t>04/11/2023 18:01</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.83</v>
+        <v>2.52</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-trofense/2X6FqrwM/</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G95" t="n">
@@ -9137,14 +9137,14 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.95</v>
+        <v>3.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.15</v>
+        <v>4.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.78</v>
+        <v>1.97</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.57</v>
+        <v>1.83</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>2</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Pero Pinheiro</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>4.12</v>
+        <v>3.38</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>4.81</v>
+        <v>3.34</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>5.34</v>
+        <v>3.78</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>7.75</v>
+        <v>3.57</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.15</v>
+        <v>1.54</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.42</v>
+        <v>4.12</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.42</v>
+        <v>4.81</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.17</v>
+        <v>5.34</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.23</v>
+        <v>7.75</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
         </is>
       </c>
     </row>
@@ -9405,30 +9405,30 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>2.67</v>
+        <v>2.15</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>04/11/2023 18:01</t>
+          <t>04/11/2023 18:02</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>3.01</v>
+        <v>2.26</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,15 +9436,15 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.07</v>
+        <v>3.42</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>04/11/2023 18:01</t>
+          <t>04/11/2023 18:02</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.18</v>
+        <v>3.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,15 +9452,15 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.71</v>
+        <v>3.17</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>04/11/2023 18:01</t>
+          <t>04/11/2023 18:02</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.52</v>
+        <v>3.23</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-trofense/2X6FqrwM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,98 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-lusitania-fc/8YD6o489/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45240.85416666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:32</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>10/11/2023 19:32</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>08/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>10/11/2023 15:03</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-fc-felgueiras/YFcovM0q/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.94</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.65</v>
+        <v>3.57</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.06</v>
+        <v>3.1</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.14</v>
+        <v>2.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.07</v>
+        <v>1.65</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.27</v>
+        <v>4.06</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.91</v>
+        <v>3.68</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.89</v>
+        <v>5.14</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.93</v>
+        <v>3.91</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.81</v>
+        <v>3.89</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>1.69</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.57</v>
+        <v>1.56</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.09</v>
+        <v>3.54</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>3.83</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>4.93</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.26</v>
+        <v>6.81</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>3.92</v>
+        <v>1.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6.79</v>
+        <v>1.56</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.33</v>
+        <v>4.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.37</v>
+        <v>4.3</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2</v>
+        <v>6.35</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.48</v>
+        <v>5.61</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/10/2023 15:41</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
         <v>2</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="L86" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:34</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="P86" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:34</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T86" t="n">
-        <v>3.18</v>
+        <v>1.48</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 15:41</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.47</v>
+        <v>2.04</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.18</v>
+        <v>3.57</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.48</v>
+        <v>3.18</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>1.5</v>
+        <v>3.47</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.56</v>
+        <v>2.92</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>4.24</v>
+        <v>3.24</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>4.3</v>
+        <v>3.36</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>6.35</v>
+        <v>2.18</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>5.61</v>
+        <v>2.48</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>3.72</v>
+        <v>2.15</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4.39</v>
+        <v>2.26</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.37</v>
+        <v>3.42</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.69</v>
+        <v>3.42</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.97</v>
+        <v>3.17</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.83</v>
+        <v>3.23</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.54</v>
+        <v>3.72</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.4</v>
+        <v>4.39</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.12</v>
+        <v>3.37</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.81</v>
+        <v>3.69</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.34</v>
+        <v>1.97</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>7.75</v>
+        <v>1.83</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.15</v>
+        <v>1.54</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.42</v>
+        <v>4.12</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.42</v>
+        <v>4.81</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.17</v>
+        <v>5.34</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.23</v>
+        <v>7.75</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,374 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-fc-felgueiras/YFcovM0q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>07/11/2023 07:11</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>07/11/2023 07:11</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>07/11/2023 07:11</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-atletico-cp/6axFrHAI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45241.66666666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:37</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-amora/CxwBqceC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45241.75</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>11/11/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-sc-vianense/C6dkwtGk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:19</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:19</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:19</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-1-dezembro/Yov7pwt6/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>4.06</v>
+        <v>3.27</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.68</v>
+        <v>3.91</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5.14</v>
+        <v>3.89</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.07</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>3.54</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.27</v>
+        <v>3.83</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.91</v>
+        <v>4.93</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.89</v>
+        <v>6.81</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.69</v>
+        <v>1.94</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.54</v>
+        <v>3.49</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.83</v>
+        <v>4.06</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>4.93</v>
+        <v>3.68</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>6.81</v>
+        <v>5.14</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I83" t="n">
         <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>4.15</v>
+        <v>2.14</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>6.18</v>
+        <v>2.58</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.15</v>
+        <v>3.31</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>29/10/2023 15:49</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>1.88</v>
+        <v>3.55</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.55</v>
+        <v>2.83</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>3</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>AD Fafe</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
       <c r="J84" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.27</v>
+        <v>4.24</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.31</v>
+        <v>4.3</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.55</v>
+        <v>6.35</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.83</v>
+        <v>5.61</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.5</v>
+        <v>4.15</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.56</v>
+        <v>6.18</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.24</v>
+        <v>3.5</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 15:49</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>6.35</v>
+        <v>1.88</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.61</v>
+        <v>1.55</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.15</v>
+        <v>1.54</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.26</v>
+        <v>1.4</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.42</v>
+        <v>4.12</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.42</v>
+        <v>4.81</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.17</v>
+        <v>5.34</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.23</v>
+        <v>7.75</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.78</v>
+        <v>3.17</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Pero Pinheiro</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
       <c r="J98" t="n">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.12</v>
+        <v>3.38</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.81</v>
+        <v>3.34</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.34</v>
+        <v>3.78</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.75</v>
+        <v>3.57</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
-        <v>4.91</v>
+        <v>2.03</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>07/11/2023 07:11</t>
+          <t>05/11/2023 15:44</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>5.61</v>
+        <v>2.06</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:37</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.84</v>
+        <v>3.32</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>07/11/2023 07:11</t>
+          <t>05/11/2023 15:44</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.98</v>
+        <v>3.22</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:37</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.71</v>
+        <v>3.81</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>07/11/2023 07:11</t>
+          <t>05/11/2023 15:44</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.61</v>
+        <v>4</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>11/11/2023 15:32</t>
+          <t>11/11/2023 15:37</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-atletico-cp/6axFrHAI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-amora/CxwBqceC/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>2.03</v>
+        <v>4.91</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>05/11/2023 15:44</t>
+          <t>07/11/2023 07:11</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.06</v>
+        <v>5.61</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>11/11/2023 15:37</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.32</v>
+        <v>3.84</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>05/11/2023 15:44</t>
+          <t>07/11/2023 07:11</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.22</v>
+        <v>3.98</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>11/11/2023 15:37</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.81</v>
+        <v>1.71</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>05/11/2023 15:44</t>
+          <t>07/11/2023 07:11</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4</v>
+        <v>1.61</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>11/11/2023 15:37</t>
+          <t>11/11/2023 15:32</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-amora/CxwBqceC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-atletico-cp/6axFrHAI/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,466 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-1-dezembro/Yov7pwt6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:54</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>06/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:48</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:51</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45242.66666666666</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>5</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:33</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:33</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:33</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-braga/tO5Jr2hS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45242.75</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-alverca/GAq2oJQa/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>SC Vianense</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>4.84</v>
+        <v>6.04</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.92</v>
+        <v>5.82</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.72</v>
+        <v>2.22</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.55</v>
+        <v>3.12</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.42</v>
+        <v>3.38</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:38</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>5.09</v>
+        <v>3.33</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.61</v>
+        <v>3.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>08/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>08/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>08/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
         <v>3.05</v>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>08/08/2023 18:40</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08/08/2023 11:12</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>08/08/2023 17:59</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>08/08/2023 11:12</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>08/08/2023 17:59</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>08/08/2023 11:12</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>2.12</v>
+        <v>3.04</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.22</v>
+        <v>1.72</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.12</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:38</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.33</v>
+        <v>5.09</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.92</v>
+        <v>4.61</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Sanjoanense</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.84</v>
+        <v>3.35</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>6.04</v>
+        <v>4.84</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.82</v>
+        <v>3.92</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.08</v>
+        <v>3.05</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.59</v>
+        <v>3.68</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.08</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.63</v>
+        <v>2.49</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.04</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.92</v>
+        <v>1.94</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>3.57</v>
+        <v>1.65</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.09</v>
+        <v>3.49</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.1</v>
+        <v>4.06</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>2.48</v>
+        <v>3.68</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>2.26</v>
+        <v>5.14</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>1.94</v>
+        <v>2.92</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.65</v>
+        <v>3.57</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.06</v>
+        <v>3.1</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.14</v>
+        <v>2.26</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>18/08/2023 13:46</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>19/08/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>18/08/2023 13:46</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
         <v>3.26</v>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>19/08/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S24" t="inlineStr">
         <is>
           <t>18/08/2023 13:46</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>19/08/2023 18:48</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>18/08/2023 13:46</t>
-        </is>
-      </c>
-      <c r="P24" t="n">
+      <c r="T24" t="n">
         <v>3.16</v>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>19/08/2023 18:48</t>
-        </is>
-      </c>
-      <c r="R24" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>18/08/2023 13:46</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>2.28</v>
-      </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 18:48</t>
+          <t>19/08/2023 18:53</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-1-dezembro/EVhy6j7j/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-alverca/zufX6Wip/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.06</v>
+        <v>3.26</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>3.44</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 18:53</t>
+          <t>19/08/2023 18:48</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 18:53</t>
+          <t>19/08/2023 18:48</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.44</v>
+        <v>2.21</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.16</v>
+        <v>2.28</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 18:53</t>
+          <t>19/08/2023 18:48</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-alverca/zufX6Wip/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-1-dezembro/EVhy6j7j/</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -2881,22 +2881,22 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.84</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,15 +2904,15 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.09</v>
+        <v>3.7</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.41</v>
+        <v>3.59</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,15 +2920,15 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.64</v>
+        <v>4.54</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.17</v>
+        <v>4.13</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Felgueiras</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.09</v>
+        <v>2.84</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.24</v>
+        <v>3.09</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.54</v>
+        <v>3.41</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.52</v>
+        <v>2.64</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.59</v>
+        <v>4.17</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>3.42</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.63</v>
+        <v>4.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -3149,30 +3149,30 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.9</v>
+        <v>2.67</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,40 +3180,40 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.7</v>
+        <v>3.24</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.59</v>
+        <v>3.54</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>20/08/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>19/08/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
           <t>20/08/2023 18:51</t>
         </is>
       </c>
-      <c r="R30" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>13/08/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T30" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>20/08/2023 18:51</t>
-        </is>
-      </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.42</v>
+        <v>3.85</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.45</v>
+        <v>4.63</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.47</v>
+        <v>3.89</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.81</v>
+        <v>4.91</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.14</v>
+        <v>6.43</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Amora</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>3</v>
-      </c>
       <c r="J45" t="n">
-        <v>2.86</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.75</v>
+        <v>1.93</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.08</v>
+        <v>3.44</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.24</v>
+        <v>3.47</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.53</v>
+        <v>4.81</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.13</v>
+        <v>4.14</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.33</v>
+        <v>3.08</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.74</v>
+        <v>3.24</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:42</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.94</v>
+        <v>2.53</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.47</v>
+        <v>2.13</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G47" t="n">
@@ -4721,14 +4721,14 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.6</v>
+        <v>3.74</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:42</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>4.15</v>
+        <v>3.94</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.8</v>
+        <v>4.47</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I48" t="n">
         <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.41</v>
+        <v>3.6</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.27</v>
+        <v>4.15</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.52</v>
+        <v>4.8</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,7 +4920,7 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.89</v>
+        <v>3.41</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.91</v>
+        <v>4.27</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>6.43</v>
+        <v>3.52</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,14 +5273,14 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -5288,15 +5288,15 @@
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.61</v>
+        <v>2.41</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:04</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.69</v>
+        <v>3.28</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5304,15 +5304,15 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.99</v>
+        <v>3.76</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -5320,16 +5320,16 @@
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.67</v>
+        <v>3.03</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.41</v>
+        <v>1.67</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:11</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.34</v>
+        <v>3.91</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:11</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.76</v>
+        <v>4.6</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>3.03</v>
+        <v>5.17</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 14:37</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-trofense/GvoxzG3t/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,63 +5457,63 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:11</t>
+          <t>16/09/2023 17:04</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.47</v>
+        <v>3.69</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:11</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.6</v>
+        <v>4.99</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.17</v>
+        <v>5.67</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 14:37</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-trofense/GvoxzG3t/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.12</v>
+        <v>4.47</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.91</v>
+        <v>3.82</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.33</v>
+        <v>3.72</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.63</v>
+        <v>1.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.5</v>
+        <v>1.94</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-atletico-cp/vi3DvBDF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>4.47</v>
+        <v>2.12</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>3.82</v>
+        <v>1.91</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.58</v>
+        <v>3.25</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.72</v>
+        <v>3.33</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.81</v>
+        <v>3.63</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.94</v>
+        <v>4.5</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-atletico-cp/vi3DvBDF/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.54</v>
+        <v>3.72</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.4</v>
+        <v>4.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.12</v>
+        <v>3.37</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.81</v>
+        <v>3.69</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.34</v>
+        <v>1.97</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>7.75</v>
+        <v>1.83</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
         <v>2.15</v>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O96" t="inlineStr">
         <is>
           <t>04/11/2023 18:02</t>
         </is>
       </c>
-      <c r="L96" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="M96" t="inlineStr">
+      <c r="P96" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q96" t="inlineStr">
         <is>
           <t>05/11/2023 15:59</t>
         </is>
       </c>
-      <c r="N96" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O96" t="inlineStr">
+      <c r="R96" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S96" t="inlineStr">
         <is>
           <t>04/11/2023 18:02</t>
         </is>
       </c>
-      <c r="P96" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q96" t="inlineStr">
+      <c r="T96" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U96" t="inlineStr">
         <is>
           <t>05/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R96" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>04/11/2023 18:02</t>
-        </is>
-      </c>
-      <c r="T96" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>05/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.72</v>
+        <v>1.54</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.39</v>
+        <v>1.4</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.69</v>
+        <v>4.81</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.97</v>
+        <v>5.34</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.83</v>
+        <v>7.75</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.78</v>
+        <v>3.17</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.69</v>
+        <v>2.47</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.83</v>
+        <v>3.33</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.93</v>
+        <v>3.28</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.1</v>
+        <v>2.96</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.28</v>
+        <v>3.61</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.96</v>
+        <v>3.52</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,63 +10241,63 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.21</v>
+        <v>3.37</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.37</v>
+        <v>3.83</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.61</v>
+        <v>3.93</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.52</v>
+        <v>5.1</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,98 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/academica-alverca/GAq2oJQa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45248.66666666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>14/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>14/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>14/11/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>18/11/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-ad-fafe/zLFbmQwc/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>2.04</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.7</v>
+        <v>3.27</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.59</v>
+        <v>3.42</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>4.54</v>
+        <v>3.61</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.13</v>
+        <v>4.45</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>2.84</v>
+        <v>2.09</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.95</v>
+        <v>2.67</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.09</v>
+        <v>3.24</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,32 +3004,32 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.41</v>
+        <v>3.54</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
+          <t>20/08/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>19/08/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
           <t>20/08/2023 18:51</t>
         </is>
       </c>
-      <c r="R28" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>19/08/2023 03:43</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>20/08/2023 18:51</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,14 +3065,14 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>2.04</v>
+        <v>1.91</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.27</v>
+        <v>3.35</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.42</v>
+        <v>3.85</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.61</v>
+        <v>3.98</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.45</v>
+        <v>4.63</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Felgueiras</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.09</v>
+        <v>2.84</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.24</v>
+        <v>3.09</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.54</v>
+        <v>3.41</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.52</v>
+        <v>2.64</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.59</v>
+        <v>4.17</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.98</v>
+        <v>4.54</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.63</v>
+        <v>4.13</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5273,63 +5273,63 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.41</v>
+        <v>1.67</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:11</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.28</v>
+        <v>3.47</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.34</v>
+        <v>3.91</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>16/09/2023 17:42</t>
+          <t>16/09/2023 17:11</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.76</v>
+        <v>4.6</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>13/09/2023 02:42</t>
+          <t>13/09/2023 02:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.03</v>
+        <v>5.17</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>16/09/2023 16:53</t>
+          <t>16/09/2023 14:37</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-trofense/GvoxzG3t/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,63 +5365,63 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:11</t>
+          <t>16/09/2023 17:04</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.47</v>
+        <v>3.69</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.91</v>
+        <v>3.95</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>16/09/2023 17:11</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.6</v>
+        <v>4.99</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>13/09/2023 02:12</t>
+          <t>13/09/2023 02:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.17</v>
+        <v>5.67</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>16/09/2023 14:37</t>
+          <t>16/09/2023 17:50</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-trofense/GvoxzG3t/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,14 +5457,14 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.65</v>
+        <v>2.07</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.61</v>
+        <v>2.41</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:04</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.69</v>
+        <v>3.28</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.95</v>
+        <v>3.34</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 17:42</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.99</v>
+        <v>3.76</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>5.67</v>
+        <v>3.03</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>16/09/2023 17:50</t>
+          <t>16/09/2023 16:53</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-canelas-2010/EVbAvdeP/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-anadia/pEktZZIn/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1.45</v>
+        <v>4.47</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.65</v>
+        <v>3.82</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>4.22</v>
+        <v>3.58</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.87</v>
+        <v>3.72</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>7.34</v>
+        <v>1.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>5.47</v>
+        <v>1.94</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-pero-pinheiro/4YA0sDTd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>4.47</v>
+        <v>2.6</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.82</v>
+        <v>2.22</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:54</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.58</v>
+        <v>3.1</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.72</v>
+        <v>3.34</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:51</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.81</v>
+        <v>2.88</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.94</v>
+        <v>3.4</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:54</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-caldas-sc/rP94tXr3/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.22</v>
+        <v>4.81</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:54</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.34</v>
+        <v>3.75</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:51</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.88</v>
+        <v>2.26</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.4</v>
+        <v>1.74</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:54</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-caldas-sc/rP94tXr3/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-sporting-lisbon/YD2HwVSL/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>3.35</v>
+        <v>1.45</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>4.81</v>
+        <v>1.65</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.19</v>
+        <v>4.22</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.75</v>
+        <v>3.87</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.26</v>
+        <v>7.34</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>1.74</v>
+        <v>5.47</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-sporting-lisbon/YD2HwVSL/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-pero-pinheiro/4YA0sDTd/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>2.14</v>
+        <v>3.92</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.58</v>
+        <v>6.79</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 15:42</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.27</v>
+        <v>3.33</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.31</v>
+        <v>4.37</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 15:42</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.55</v>
+        <v>2</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.83</v>
+        <v>1.48</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 15:41</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>4.15</v>
+        <v>2.14</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>6.18</v>
+        <v>2.58</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.15</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/10/2023 15:49</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>1.88</v>
+        <v>3.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.55</v>
+        <v>2.83</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>3.92</v>
+        <v>4.15</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6.79</v>
+        <v>6.18</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.37</v>
+        <v>4.15</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 15:49</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 15:41</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>2</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
       <c r="J87" t="n">
-        <v>2.04</v>
+        <v>3.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.57</v>
+        <v>2.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.18</v>
+        <v>2.48</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>3.47</v>
+        <v>2.04</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.18</v>
+        <v>3.57</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.48</v>
+        <v>3.18</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>3.72</v>
+        <v>1.54</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4.39</v>
+        <v>1.4</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.69</v>
+        <v>4.81</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.97</v>
+        <v>5.34</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.83</v>
+        <v>7.75</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,7 +9260,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
@@ -9268,7 +9268,7 @@
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.78</v>
+        <v>3.17</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,7 +9276,7 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>1.54</v>
+        <v>3.72</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>1.4</v>
+        <v>4.39</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>4.12</v>
+        <v>3.37</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4.81</v>
+        <v>3.69</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>5.34</v>
+        <v>1.97</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>7.75</v>
+        <v>1.83</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
         <v>2.15</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O98" t="inlineStr">
         <is>
           <t>04/11/2023 18:02</t>
         </is>
       </c>
-      <c r="L98" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="M98" t="inlineStr">
+      <c r="P98" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q98" t="inlineStr">
         <is>
           <t>05/11/2023 15:59</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O98" t="inlineStr">
+      <c r="R98" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S98" t="inlineStr">
         <is>
           <t>04/11/2023 18:02</t>
         </is>
       </c>
-      <c r="P98" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q98" t="inlineStr">
+      <c r="T98" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U98" t="inlineStr">
         <is>
           <t>05/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R98" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>04/11/2023 18:02</t>
-        </is>
-      </c>
-      <c r="T98" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>05/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,190 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-ad-fafe/zLFbmQwc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45261.66666666666</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>01/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-covilha/hdftaxea/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45261.77083333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>24/11/2023 21:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-caldas-sc/OG6T1vBt/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.92</v>
+        <v>2.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>6.79</v>
+        <v>2.4</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.37</v>
+        <v>3.2</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>3.57</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.48</v>
+        <v>3.18</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/10/2023 15:41</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.5</v>
+        <v>3.92</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.56</v>
+        <v>6.79</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 15:42</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.24</v>
+        <v>3.33</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 15:42</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>6.35</v>
+        <v>2</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.61</v>
+        <v>1.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 15:41</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>AD Fafe</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.27</v>
+        <v>4.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>4.3</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.55</v>
+        <v>6.35</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.83</v>
+        <v>5.61</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>4.15</v>
+        <v>2.14</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6.18</v>
+        <v>2.58</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.15</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 15:49</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.88</v>
+        <v>3.55</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.55</v>
+        <v>2.83</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.47</v>
+        <v>4.15</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.92</v>
+        <v>6.18</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.36</v>
+        <v>4.15</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 15:49</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>2</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.04</v>
+        <v>3.47</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.57</v>
+        <v>2.18</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.18</v>
+        <v>2.48</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:33</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.38</v>
+        <v>3.27</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:33</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.28</v>
+        <v>3.98</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:33</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-braga/tO5Jr2hS/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.16</v>
+        <v>2.47</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.21</v>
+        <v>3.38</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.61</v>
+        <v>3.28</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.52</v>
+        <v>2.96</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,63 +10241,63 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="N107" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
         <v>3.37</v>
       </c>
-      <c r="O107" t="inlineStr">
-        <is>
-          <t>05/11/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P107" t="n">
-        <v>3.83</v>
-      </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.93</v>
+        <v>3.61</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.1</v>
+        <v>3.52</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.34</v>
+        <v>1.69</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:33</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.27</v>
+        <v>3.37</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.24</v>
+        <v>3.83</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:33</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.98</v>
+        <v>3.93</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.24</v>
+        <v>5.1</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:33</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-braga/tO5Jr2hS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
         </is>
       </c>
     </row>
@@ -10758,6 +10758,98 @@
       <c r="V112" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-caldas-sc/OG6T1vBt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45262.65625</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>2</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:17</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-academica/M7K16K2P/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>4.14</v>
+        <v>1.72</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,48 +688,48 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>3.47</v>
+        <v>1.85</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="N3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>08/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
         <v>3.42</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>08/08/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08/08/2023 11:12</t>
         </is>
       </c>
-      <c r="P3" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>08/08/2023 18:02</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>08/08/2023 11:12</t>
-        </is>
-      </c>
       <c r="T3" t="n">
-        <v>2.11</v>
+        <v>4.61</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,14 +765,14 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1.61</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -780,15 +780,15 @@
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.62</v>
+        <v>3.68</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.65</v>
+        <v>3.08</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -796,15 +796,15 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.84</v>
+        <v>3.31</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>6.04</v>
+        <v>2.49</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -812,16 +812,16 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>5.82</v>
+        <v>2.12</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.22</v>
+        <v>4.14</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.02</v>
+        <v>3.47</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.12</v>
+        <v>3.42</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.38</v>
+        <v>3.53</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:38</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.33</v>
+        <v>1.92</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.92</v>
+        <v>2.11</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.08</v>
+        <v>1.61</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.59</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.05</v>
+        <v>3.84</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.63</v>
+        <v>6.04</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.04</v>
+        <v>5.82</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>1.72</v>
+        <v>2.08</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.85</v>
+        <v>2.59</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.42</v>
+        <v>3.05</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:40</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.09</v>
+        <v>3.63</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.61</v>
+        <v>3.04</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,50 +1133,50 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.69</v>
+        <v>2.22</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.59</v>
+        <v>3.12</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:38</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>4.84</v>
+        <v>3.33</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="T8" t="n">
@@ -1184,12 +1184,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
         </is>
       </c>
     </row>
@@ -1217,30 +1217,30 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.05</v>
+        <v>1.69</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.68</v>
+        <v>2.03</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1248,15 +1248,15 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.08</v>
+        <v>3.59</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -1264,15 +1264,15 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.49</v>
+        <v>4.84</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>3.92</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-alverca/SEUggDNp/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.94</v>
+        <v>2.92</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.65</v>
+        <v>3.57</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.49</v>
+        <v>3.09</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>4.06</v>
+        <v>3.1</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>3.68</v>
+        <v>2.48</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>5.14</v>
+        <v>2.26</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>13/08/2023 18:46</t>
+          <t>13/08/2023 18:52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
         </is>
       </c>
     </row>
@@ -2045,30 +2045,30 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.96</v>
+        <v>2.07</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.07</v>
+        <v>2.87</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -2076,40 +2076,40 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>12/08/2023 22:04</t>
+          <t>12/08/2023 22:05</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.27</v>
+        <v>3.41</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>13/08/2023 18:39</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>12/08/2023 22:05</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
           <t>13/08/2023 18:59</t>
         </is>
       </c>
-      <c r="R18" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>12/08/2023 22:04</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>13/08/2023 18:59</t>
-        </is>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.69</v>
+        <v>1.96</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.54</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.83</v>
+        <v>3.27</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>4.93</v>
+        <v>3.91</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>6.81</v>
+        <v>3.89</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>13/08/2023 18:56</t>
+          <t>13/08/2023 18:59</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-sporting-lisbon/xpCpGzVc/</t>
         </is>
       </c>
     </row>
@@ -2229,34 +2229,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.87</v>
+        <v>1.65</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -2264,36 +2264,36 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.41</v>
+        <v>4.06</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:39</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.31</v>
+        <v>3.68</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>12/08/2023 22:05</t>
+          <t>12/08/2023 22:04</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.49</v>
+        <v>5.14</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>13/08/2023 18:59</t>
+          <t>13/08/2023 18:46</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-oliveira-hospital/tIIyId0o/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-trofense/2FqS8w5s/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.92</v>
+        <v>1.69</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.57</v>
+        <v>1.56</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.09</v>
+        <v>3.54</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.1</v>
+        <v>3.83</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>4.93</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.26</v>
+        <v>6.81</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>13/08/2023 18:52</t>
+          <t>13/08/2023 18:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-caldas-sc/GzBlFfp4/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-pero-pinheiro/pAFhEEaA/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2.06</v>
+        <v>3.26</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.37</v>
+        <v>3.44</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 18:53</t>
+          <t>19/08/2023 18:48</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.26</v>
+        <v>3.16</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 18:53</t>
+          <t>19/08/2023 18:48</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.44</v>
+        <v>2.21</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.16</v>
+        <v>2.28</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 18:53</t>
+          <t>19/08/2023 18:48</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-alverca/zufX6Wip/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-1-dezembro/EVhy6j7j/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>18/08/2023 13:46</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>19/08/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>18/08/2023 13:46</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
         <v>3.26</v>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>19/08/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>18/08/2023 13:46</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>19/08/2023 18:48</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>18/08/2023 13:46</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
+      <c r="T25" t="n">
         <v>3.16</v>
       </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>19/08/2023 18:48</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>18/08/2023 13:46</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>2.28</v>
-      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 18:48</t>
+          <t>19/08/2023 18:53</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-1-dezembro/EVhy6j7j/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-alverca/zufX6Wip/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.88</v>
+        <v>2.67</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.27</v>
+        <v>3.24</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.42</v>
+        <v>3.54</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 12:29</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.45</v>
+        <v>2.59</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Felgueiras</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>8</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.09</v>
+        <v>2.84</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.67</v>
+        <v>1.95</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.24</v>
+        <v>3.09</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.54</v>
+        <v>3.41</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 12:29</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.52</v>
+        <v>2.64</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.59</v>
+        <v>4.17</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-fc-felgueiras/QgUi3ZYI/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.85</v>
+        <v>3.59</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.98</v>
+        <v>4.54</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.63</v>
+        <v>4.13</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
         </is>
       </c>
     </row>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.84</v>
+        <v>2.04</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,15 +3172,15 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.09</v>
+        <v>3.27</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,15 +3188,15 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.64</v>
+        <v>3.61</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,16 +3204,16 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.17</v>
+        <v>4.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>2</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Oliveira Hospital</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
       <c r="J31" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.59</v>
+        <v>3.85</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.54</v>
+        <v>3.98</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.13</v>
+        <v>4.63</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,14 +3801,14 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>2.18</v>
+        <v>3.04</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,15 +3816,15 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>2.49</v>
+        <v>3.77</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.19</v>
+        <v>3.14</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,15 +3832,15 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.34</v>
+        <v>3.27</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>27/08/2023 07:08</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>3.55</v>
+        <v>2.46</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,16 +3848,16 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>2.92</v>
+        <v>2.11</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>27/08/2023 18:49</t>
+          <t>27/08/2023 17:27</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.55</v>
+        <v>2.01</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:50</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.91</v>
+        <v>3.39</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.89</v>
+        <v>4.17</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>6.37</v>
+        <v>3.58</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>9.02</v>
+        <v>4.3</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.01</v>
+        <v>2.18</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.74</v>
+        <v>2.49</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.39</v>
+        <v>3.19</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>4.17</v>
+        <v>3.34</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 07:08</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.58</v>
+        <v>3.55</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.3</v>
+        <v>2.92</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:49</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-academica/UwyOTgac/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>3.04</v>
+        <v>3.12</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>3.77</v>
+        <v>4.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.27</v>
+        <v>3.64</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:27</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-ad-fafe/672EKz4g/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>3.12</v>
+        <v>1.55</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>4.74</v>
+        <v>1.36</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:50</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.17</v>
+        <v>3.91</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.64</v>
+        <v>4.89</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.4</v>
+        <v>6.37</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>1.78</v>
+        <v>9.02</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.89</v>
+        <v>3.41</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,7 +4484,7 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.91</v>
+        <v>4.27</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>6.43</v>
+        <v>3.52</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>3.16</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.93</v>
+        <v>3.18</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.44</v>
+        <v>3.02</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.47</v>
+        <v>3.27</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>4.81</v>
+        <v>2.46</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.14</v>
+        <v>2.36</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>03/09/2023 17:51</t>
+          <t>03/09/2023 17:34</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Amora</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>3</v>
-      </c>
       <c r="J46" t="n">
-        <v>2.86</v>
+        <v>2</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.08</v>
+        <v>3.33</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.24</v>
+        <v>3.74</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:42</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>2.53</v>
+        <v>3.94</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>2.13</v>
+        <v>4.47</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>03/09/2023 17:22</t>
+          <t>03/09/2023 17:47</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>2.86</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.33</v>
+        <v>3.08</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.74</v>
+        <v>3.24</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:42</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.94</v>
+        <v>2.53</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.47</v>
+        <v>2.13</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>03/09/2023 17:47</t>
+          <t>03/09/2023 17:22</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-academica/bJSvQBbM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-amora/xSIEJ9yj/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.6</v>
+        <v>3.47</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>4.15</v>
+        <v>4.81</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>4.8</v>
+        <v>4.14</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>03/09/2023 13:30</t>
+          <t>03/09/2023 17:51</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-alverca/jVMIITjd/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.14</v>
+        <v>1.78</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.37</v>
+        <v>3.3</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,15 +4936,15 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.41</v>
+        <v>3.6</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.27</v>
+        <v>4.15</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -4952,16 +4952,16 @@
         </is>
       </c>
       <c r="T49" t="n">
-        <v>3.52</v>
+        <v>4.8</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>03/09/2023 17:56</t>
+          <t>03/09/2023 13:30</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sc-vianense/bNGNGh3I/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-oliveira-hospital/hfsrPVDS/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Lusitania FC</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>3.16</v>
+        <v>1.77</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.18</v>
+        <v>1.57</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.02</v>
+        <v>3.47</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.27</v>
+        <v>3.89</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.46</v>
+        <v>4.91</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.36</v>
+        <v>6.43</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>03/09/2023 17:34</t>
+          <t>03/09/2023 17:56</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-lusitania-fc/pb1IJfJa/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-1-dezembro/f3T9KkMq/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,14 +5641,14 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>4.47</v>
+        <v>1.45</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -5656,15 +5656,15 @@
         </is>
       </c>
       <c r="L57" t="n">
-        <v>3.82</v>
+        <v>1.65</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.58</v>
+        <v>4.22</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
@@ -5672,15 +5672,15 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.72</v>
+        <v>3.87</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>1.81</v>
+        <v>7.34</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -5688,16 +5688,16 @@
         </is>
       </c>
       <c r="T57" t="n">
-        <v>1.94</v>
+        <v>5.47</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>17/09/2023 16:38</t>
+          <t>17/09/2023 17:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-pero-pinheiro/4YA0sDTd/</t>
         </is>
       </c>
     </row>
@@ -5725,22 +5725,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I58" t="n">
         <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.6</v>
+        <v>4.47</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.22</v>
+        <v>3.82</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>17/09/2023 17:54</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.1</v>
+        <v>3.58</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.34</v>
+        <v>3.72</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>17/09/2023 17:51</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>2.88</v>
+        <v>1.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>3.4</v>
+        <v>1.94</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>17/09/2023 17:54</t>
+          <t>17/09/2023 16:38</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-caldas-sc/rP94tXr3/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-covilha/0049uib9/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>3.35</v>
+        <v>2.12</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4.81</v>
+        <v>1.91</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.75</v>
+        <v>3.33</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.26</v>
+        <v>3.63</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.74</v>
+        <v>4.5</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>17/09/2023 17:55</t>
+          <t>17/09/2023 17:57</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-sporting-lisbon/YD2HwVSL/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-atletico-cp/vi3DvBDF/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1.45</v>
+        <v>2.6</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:54</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>4.22</v>
+        <v>3.1</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.87</v>
+        <v>3.34</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:51</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>7.34</v>
+        <v>2.88</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.47</v>
+        <v>3.4</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>17/09/2023 17:59</t>
+          <t>17/09/2023 17:54</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-pero-pinheiro/4YA0sDTd/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-caldas-sc/rP94tXr3/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I61" t="n">
         <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.91</v>
+        <v>4.81</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.25</v>
+        <v>3.19</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.63</v>
+        <v>2.26</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.5</v>
+        <v>1.74</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>17/09/2023 17:57</t>
+          <t>17/09/2023 17:55</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-atletico-cp/vi3DvBDF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-sporting-lisbon/YD2HwVSL/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:04</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:53</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.37</v>
+        <v>3.73</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:04</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:53</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.94</v>
+        <v>4.85</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:04</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>3.54</v>
+        <v>5.53</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:53</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-caldas-sc/jVrlY8jq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-amora/bendWnLe/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>4.35</v>
+        <v>1.91</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:02</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.85</v>
+        <v>2.25</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.49</v>
+        <v>3.37</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:02</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.79</v>
+        <v>3.94</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:02</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.79</v>
+        <v>3.54</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-academica/pl6LxkrS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-caldas-sc/jVrlY8jq/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J65" t="n">
-        <v>1.65</v>
+        <v>4.35</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.65</v>
+        <v>4.85</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.73</v>
+        <v>3.49</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.85</v>
+        <v>3.55</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.85</v>
+        <v>1.79</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.53</v>
+        <v>1.79</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-amora/bendWnLe/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-academica/pl6LxkrS/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>1.65</v>
+        <v>2.19</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.67</v>
+        <v>3.23</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 13:49</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>5.57</v>
+        <v>3.28</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>6.01</v>
+        <v>2.29</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-oliveira-hospital/ULshXS5k/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
         <v>2</v>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>SC Vianense</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
       <c r="J67" t="n">
-        <v>2.19</v>
+        <v>2.6</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,31 +6576,31 @@
         </is>
       </c>
       <c r="L67" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:41</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>3.1</v>
       </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>01/10/2023 14:05</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>3.23</v>
-      </c>
       <c r="O67" t="inlineStr">
         <is>
           <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>01/10/2023 13:49</t>
+          <t>01/10/2023 15:40</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>3.28</v>
+        <v>2.88</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>01/10/2023 14:05</t>
+          <t>01/10/2023 15:41</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-lusitania-fc/4EdhWX25/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.6</v>
+        <v>2.26</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.18</v>
+        <v>2.49</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 15:41</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 15:40</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.88</v>
+        <v>3.39</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.32</v>
+        <v>3.17</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 15:41</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-lusitania-fc/4EdhWX25/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-trofense/byddViIB/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>3</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>2</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Trofense</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
       <c r="J69" t="n">
-        <v>2.26</v>
+        <v>1.65</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.49</v>
+        <v>1.62</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.16</v>
+        <v>3.67</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.06</v>
+        <v>3.77</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>3.39</v>
+        <v>5.57</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>3.17</v>
+        <v>6.01</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-trofense/byddViIB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-oliveira-hospital/ULshXS5k/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:34</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:34</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T83" t="n">
-        <v>3.18</v>
+        <v>1.48</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 15:41</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.92</v>
+        <v>1.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6.79</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>4.24</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.37</v>
+        <v>4.3</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>6.35</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.48</v>
+        <v>5.61</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/10/2023 15:41</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.56</v>
+        <v>2.58</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.24</v>
+        <v>3.27</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.3</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>6.35</v>
+        <v>3.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.61</v>
+        <v>2.83</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.14</v>
+        <v>4.15</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.58</v>
+        <v>6.18</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.5</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>4.15</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 15:49</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.55</v>
+        <v>1.88</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.83</v>
+        <v>1.55</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>4.15</v>
+        <v>3.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6.18</v>
+        <v>2.92</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.15</v>
+        <v>3.36</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 15:49</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>3.47</v>
+        <v>2.04</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.18</v>
+        <v>3.57</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.48</v>
+        <v>3.18</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J95" t="n">
-        <v>1.54</v>
+        <v>2.15</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.4</v>
+        <v>2.26</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.12</v>
+        <v>3.42</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>5.34</v>
+        <v>3.17</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>7.75</v>
+        <v>3.23</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Canelas 2010</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>4</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.15</v>
+        <v>3.72</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.26</v>
+        <v>4.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.42</v>
+        <v>3.37</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.42</v>
+        <v>3.69</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.17</v>
+        <v>1.97</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.23</v>
+        <v>1.83</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,14 +9321,14 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="n">
-        <v>3.72</v>
+        <v>1.95</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.39</v>
+        <v>2.15</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.69</v>
+        <v>3.34</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.97</v>
+        <v>3.78</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.83</v>
+        <v>3.57</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Caldas</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
       <c r="J98" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.38</v>
+        <v>4.12</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.34</v>
+        <v>4.81</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.78</v>
+        <v>5.34</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.57</v>
+        <v>7.75</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.47</v>
+        <v>1.69</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.33</v>
+        <v>3.83</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.28</v>
+        <v>3.93</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>2.96</v>
+        <v>5.1</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.16</v>
+        <v>2.47</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.21</v>
+        <v>3.38</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.61</v>
+        <v>3.28</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.52</v>
+        <v>2.96</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -10333,63 +10333,63 @@
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="N108" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
         <v>3.37</v>
       </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>05/11/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>3.83</v>
-      </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.93</v>
+        <v>3.61</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.1</v>
+        <v>3.52</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,2490 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/amora-academica/M7K16K2P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45262.90625</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:17</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:17</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:17</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:17</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:17</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>8.98</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>02/12/2023 19:17</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-canelas-2010/6u8pc17L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-ad-fafe/Sl9tbshF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-pero-pinheiro/AX4y0Iug/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:53</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-sporting-lisbon/Wt6X0bQn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>2</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-anadia/027ldLMR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45263.66666666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-lusitania-fc/Myvt03N2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45263.75</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-braga/n3Vm4FJC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45268.66666666666</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>3</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-braga/bwmPkJae/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45268.66666666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:33</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:33</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>08/12/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-varzim/KnlLjapk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45268.77083333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-atletico-cp/zuj1fE9U/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45268.85416666666</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>04/12/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-fc-felgueiras/SCiTlwF1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45269.66666666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>2</v>
+      </c>
+      <c r="J125" t="n">
+        <v>8.869999999999999</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-alverca/vDdhdzuI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45269.77083333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sc-vianense/xObGiuVr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45269.89583333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:25</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:01</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-oliveira-hospital/0MclcGPB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45270.66666666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>8.050000000000001</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>10/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-1-dezembro/dliceffO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45270.77083333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>4</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sanjoanense/63jXmcU7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45270.875</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>2</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:32</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:32</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:44</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:32</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/caldas-sc-amora/6abpbdA5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45276.5</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Academica</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>16/12/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-sporting-lisbon/OzVAEHfn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45276.66666666666</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-trofense/88UFCt78/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45276.77083333334</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>2</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/alverca-covilha/6aKFDyAh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45276.89583333334</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>3</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:25</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-sanjoanense/YkEf5bar/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Amora</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-pero-pinheiro/pjJJCePb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Caldas</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-caldas-sc/C0R6Fcut/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-ad-fafe/KrYJB0ME/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-canelas-2010/hdWR9viR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45277.66666666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1º Dezembro</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>17/12/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-atletico-cp/EPNNBFv5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45277.77083333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>4</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:00</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:00</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>10/12/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>17/12/2023 17:00</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-anadia/E5XNAKyL/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V140"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13337,6 +13337,98 @@
         </is>
       </c>
     </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45296.85416666666</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>AD Fafe</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Felgueiras</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>29/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:27</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>29/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:27</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>29/12/2024 21:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>05/01/2024 20:27</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-fc-felgueiras/2V5B1Gb7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V141"/>
+  <dimension ref="A1:V143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>1.72</v>
+        <v>4.14</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.85</v>
+        <v>3.47</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.42</v>
+        <v>3.53</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.09</v>
+        <v>1.92</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.61</v>
+        <v>2.11</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>08/08/2023 18:58</t>
+          <t>08/08/2023 18:02</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4.14</v>
+        <v>1.72</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,48 +872,48 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.47</v>
+        <v>1.85</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="N5" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>08/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
         <v>3.42</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>08/08/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>08/08/2023 11:12</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>08/08/2023 18:02</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>08/08/2023 11:12</t>
-        </is>
-      </c>
       <c r="T5" t="n">
-        <v>2.11</v>
+        <v>4.61</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>08/08/2023 18:02</t>
+          <t>08/08/2023 18:58</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-covilha/CtTM0eVA/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-1-dezembro/63SQaFpH/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Sanjoanense</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>2.03</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.84</v>
+        <v>3.35</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>6.04</v>
+        <v>4.84</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:13</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.82</v>
+        <v>3.92</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>08/08/2023 18:55</t>
+          <t>08/08/2023 17:59</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
         </is>
       </c>
     </row>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.59</v>
+        <v>2.02</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.15</v>
+        <v>3.12</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.05</v>
+        <v>3.38</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:40</t>
+          <t>08/08/2023 18:38</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.63</v>
+        <v>3.33</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>08/08/2023 11:12</t>
+          <t>08/08/2023 16:12</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>3.04</v>
+        <v>3.92</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>08/08/2023 18:59</t>
+          <t>08/08/2023 18:41</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>2.22</v>
+        <v>2.08</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.02</v>
+        <v>2.59</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.38</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:38</t>
+          <t>08/08/2023 18:40</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>3.33</v>
+        <v>3.63</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>08/08/2023 16:12</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>3.92</v>
+        <v>3.04</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/08/2023 18:41</t>
+          <t>08/08/2023 18:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-fc-felgueiras/dfEgfvjl/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-anadia/CpH5ixz7/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>SC Vianense</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
       <c r="J9" t="n">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.03</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.35</v>
+        <v>3.84</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>4.84</v>
+        <v>6.04</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>08/08/2023 16:13</t>
+          <t>08/08/2023 11:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>3.92</v>
+        <v>5.82</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/08/2023 17:59</t>
+          <t>08/08/2023 18:55</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-sc-vianense/I922hIK0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-sanjoanense/vJ3bgb5f/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>2</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Trofense</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.84</v>
+        <v>1.91</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.09</v>
+        <v>3.35</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.41</v>
+        <v>3.85</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.64</v>
+        <v>3.98</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.17</v>
+        <v>4.63</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>20/08/2023 18:51</t>
+          <t>20/08/2023 18:53</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,22 +3065,22 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>2.84</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3088,15 +3088,15 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>3.09</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.59</v>
+        <v>3.41</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -3104,15 +3104,15 @@
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.54</v>
+        <v>2.64</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>13/08/2023 23:12</t>
+          <t>19/08/2023 03:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>4.13</v>
+        <v>4.17</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-trofense/0SxpaNx9/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.27</v>
+        <v>3.7</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.42</v>
+        <v>3.59</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.61</v>
+        <v>4.54</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>19/08/2023 03:43</t>
+          <t>13/08/2023 23:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>4.45</v>
+        <v>4.13</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>20/08/2023 18:59</t>
+          <t>20/08/2023 18:51</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-oliveira-hospital/O0EdDYEG/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.35</v>
+        <v>3.27</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.85</v>
+        <v>3.42</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.98</v>
+        <v>3.61</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.63</v>
+        <v>4.45</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>20/08/2023 18:53</t>
+          <t>20/08/2023 18:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sanjoanense/4vtq5e46/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/academica-amora/6P31ChUM/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>2.01</v>
+        <v>1.55</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:50</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.39</v>
+        <v>3.91</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.17</v>
+        <v>4.89</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.58</v>
+        <v>6.37</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.3</v>
+        <v>9.02</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>27/08/2023 18:59</t>
+          <t>27/08/2023 18:52</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Covilha</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
       <c r="J40" t="n">
-        <v>3.12</v>
+        <v>2.01</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.74</v>
+        <v>1.74</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.17</v>
+        <v>3.39</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.4</v>
+        <v>3.58</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.78</v>
+        <v>4.3</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>27/08/2023 17:39</t>
+          <t>27/08/2023 18:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-canelas-2010/bsa6MdZt/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Felgueiras</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Covilha</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Anadia</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>3</v>
-      </c>
       <c r="J41" t="n">
-        <v>1.55</v>
+        <v>3.12</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.36</v>
+        <v>4.74</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:50</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.91</v>
+        <v>3.17</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.89</v>
+        <v>3.64</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>6.37</v>
+        <v>2.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>9.02</v>
+        <v>1.78</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>27/08/2023 18:52</t>
+          <t>27/08/2023 17:39</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/fc-felgueiras-anadia/Cp3ALGlm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-covilha/x4vWRXT9/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.73</v>
+        <v>3.37</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.85</v>
+        <v>3.15</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>4.85</v>
+        <v>3.94</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>29/09/2023 13:04</t>
+          <t>29/09/2023 13:03</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.53</v>
+        <v>3.54</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 16:53</t>
+          <t>30/09/2023 16:36</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-amora/bendWnLe/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-caldas-sc/jVrlY8jq/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1.91</v>
+        <v>4.35</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.25</v>
+        <v>4.85</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.37</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.94</v>
+        <v>1.79</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>29/09/2023 13:03</t>
+          <t>29/09/2023 13:02</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>3.54</v>
+        <v>1.79</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 16:36</t>
+          <t>30/09/2023 16:59</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-caldas-sc/jVrlY8jq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-academica/pl6LxkrS/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Academica</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.35</v>
+        <v>1.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>29/09/2023 13:02</t>
+          <t>29/09/2023 13:04</t>
         </is>
       </c>
       <c r="L65" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>30/09/2023 16:53</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>29/09/2023 13:04</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>30/09/2023 16:53</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>4.85</v>
       </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>30/09/2023 16:59</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>29/09/2023 13:02</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>30/09/2023 16:59</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>1.79</v>
-      </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>29/09/2023 13:02</t>
+          <t>29/09/2023 13:04</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.79</v>
+        <v>5.53</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>30/09/2023 16:59</t>
+          <t>30/09/2023 16:53</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-academica/pl6LxkrS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-amora/bendWnLe/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G66" t="n">
+        <v>3</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
         <v>2</v>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>SC Vianense</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
       <c r="J66" t="n">
-        <v>2.19</v>
+        <v>1.65</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>01/10/2023 14:05</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>3.23</v>
+        <v>3.67</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>01/10/2023 13:49</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>3.28</v>
+        <v>5.57</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>2.29</v>
+        <v>6.01</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>01/10/2023 14:05</t>
+          <t>01/10/2023 15:26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-oliveira-hospital/ULshXS5k/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.6</v>
+        <v>2.19</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>01/10/2023 15:41</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>3.1</v>
+        <v>3.23</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>01/10/2023 15:40</t>
+          <t>01/10/2023 13:49</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.88</v>
+        <v>3.28</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.32</v>
+        <v>2.29</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>01/10/2023 15:41</t>
+          <t>01/10/2023 14:05</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-lusitania-fc/4EdhWX25/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-sc-vianense/f3k5TVnO/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>2</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Trofense</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
       <c r="J68" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.49</v>
+        <v>3.18</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:41</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:40</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.39</v>
+        <v>2.88</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.17</v>
+        <v>2.32</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 12:40</t>
+          <t>01/10/2023 15:41</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-trofense/byddViIB/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-lusitania-fc/4EdhWX25/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Trofense</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>1.65</v>
+        <v>2.26</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.62</v>
+        <v>2.49</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.67</v>
+        <v>3.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.77</v>
+        <v>3.06</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>5.57</v>
+        <v>3.39</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>6.01</v>
+        <v>3.17</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 15:26</t>
+          <t>01/10/2023 12:40</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-oliveira-hospital/ULshXS5k/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-trofense/byddViIB/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>3.13</v>
+        <v>5.05</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>06/10/2023 20:06</t>
+          <t>06/10/2023 20:05</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>3.18</v>
+        <v>4.49</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>07/10/2023 16:37</t>
+          <t>07/10/2023 14:15</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.09</v>
+        <v>3.74</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>06/10/2023 20:06</t>
+          <t>06/10/2023 20:05</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>07/10/2023 16:44</t>
+          <t>07/10/2023 14:15</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>06/10/2023 20:06</t>
+          <t>06/10/2023 20:05</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>07/10/2023 16:37</t>
+          <t>07/10/2023 14:15</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-atletico-cp/nHSjhUsF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-fc-felgueiras/pYHRpXHb/</t>
         </is>
       </c>
     </row>
@@ -7105,22 +7105,22 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>2.23</v>
+        <v>3.13</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.39</v>
+        <v>3.18</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>07/10/2023 16:53</t>
+          <t>07/10/2023 16:37</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>07/10/2023 16:53</t>
+          <t>07/10/2023 16:44</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.36</v>
+        <v>2.34</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>07/10/2023 16:53</t>
+          <t>07/10/2023 16:37</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-alverca/4h7HZLRm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-atletico-cp/nHSjhUsF/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>1</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Felgueiras</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
       <c r="J74" t="n">
-        <v>5.05</v>
+        <v>2.23</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>06/10/2023 20:05</t>
+          <t>06/10/2023 20:06</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>4.49</v>
+        <v>2.39</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>07/10/2023 14:15</t>
+          <t>07/10/2023 16:53</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>06/10/2023 20:05</t>
+          <t>06/10/2023 20:06</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>07/10/2023 14:15</t>
+          <t>07/10/2023 16:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>1.63</v>
+        <v>3.36</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>06/10/2023 20:05</t>
+          <t>06/10/2023 20:06</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>07/10/2023 14:15</t>
+          <t>07/10/2023 16:53</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-fc-felgueiras/pYHRpXHb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-alverca/4h7HZLRm/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.92</v>
+        <v>2.04</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>6.79</v>
+        <v>2.4</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.33</v>
+        <v>3.31</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.37</v>
+        <v>3.2</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>3.57</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.48</v>
+        <v>3.18</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/10/2023 15:41</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>1.5</v>
+        <v>3.92</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.56</v>
+        <v>6.79</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 15:42</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.24</v>
+        <v>3.33</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.3</v>
+        <v>4.37</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 15:42</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>6.35</v>
+        <v>2</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.61</v>
+        <v>1.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 15:41</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>3</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>AD Fafe</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.58</v>
+        <v>1.56</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.27</v>
+        <v>4.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>4.3</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.55</v>
+        <v>6.35</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.83</v>
+        <v>5.61</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>4.15</v>
+        <v>2.14</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>6.18</v>
+        <v>2.58</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.5</v>
+        <v>3.27</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.15</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 15:49</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>1.88</v>
+        <v>3.55</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>1.55</v>
+        <v>2.83</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.47</v>
+        <v>4.15</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.92</v>
+        <v>6.18</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.5</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.36</v>
+        <v>4.15</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 15:49</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.48</v>
+        <v>1.55</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
         <v>2</v>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
       <c r="J88" t="n">
-        <v>2.04</v>
+        <v>3.47</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.4</v>
+        <v>2.92</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.31</v>
+        <v>3.24</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.2</v>
+        <v>3.36</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.57</v>
+        <v>2.18</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.18</v>
+        <v>2.48</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.38</v>
+        <v>3.21</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.33</v>
+        <v>3.37</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.28</v>
+        <v>3.61</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.96</v>
+        <v>3.52</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.16</v>
+        <v>2.47</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.21</v>
+        <v>3.38</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.37</v>
+        <v>3.33</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.61</v>
+        <v>3.28</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.52</v>
+        <v>2.96</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
         </is>
       </c>
     </row>
@@ -10969,22 +10969,22 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Varzim</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.66</v>
+        <v>2.06</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>03/12/2023 15:52</t>
+          <t>03/12/2023 15:58</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.58</v>
+        <v>3.39</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.69</v>
+        <v>3.53</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>03/12/2023 15:52</t>
+          <t>03/12/2023 15:58</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>5.13</v>
+        <v>3.95</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>5.65</v>
+        <v>3.62</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>03/12/2023 15:52</t>
+          <t>03/12/2023 15:58</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-ad-fafe/Sl9tbshF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-pero-pinheiro/AX4y0Iug/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.97</v>
+        <v>3.08</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.06</v>
+        <v>3.83</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>03/12/2023 15:58</t>
+          <t>03/12/2023 15:53</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.39</v>
+        <v>3.31</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.53</v>
+        <v>3.49</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>03/12/2023 15:58</t>
+          <t>03/12/2023 15:53</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.62</v>
+        <v>2.01</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>03/12/2023 15:58</t>
+          <t>03/12/2023 15:53</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-pero-pinheiro/AX4y0Iug/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-sporting-lisbon/Wt6X0bQn/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>3.08</v>
+        <v>2.91</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>26/11/2023 18:13</t>
+          <t>02/12/2023 13:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>3.83</v>
+        <v>3.21</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>03/12/2023 15:53</t>
+          <t>03/12/2023 15:58</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.31</v>
+        <v>3.36</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>26/11/2023 18:13</t>
+          <t>02/12/2023 13:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>03/12/2023 15:53</t>
+          <t>03/12/2023 15:58</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>26/11/2023 18:13</t>
+          <t>02/12/2023 13:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.01</v>
+        <v>2.24</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>03/12/2023 15:53</t>
+          <t>03/12/2023 15:58</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-sporting-lisbon/Wt6X0bQn/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-anadia/027ldLMR/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.91</v>
+        <v>3.65</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>02/12/2023 13:12</t>
+          <t>26/11/2023 18:13</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.21</v>
+        <v>4.02</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>03/12/2023 15:58</t>
+          <t>03/12/2023 15:52</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.36</v>
+        <v>3.33</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>02/12/2023 13:12</t>
+          <t>26/11/2023 18:13</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.5</v>
+        <v>3.57</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>03/12/2023 15:58</t>
+          <t>03/12/2023 15:52</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>02/12/2023 13:12</t>
+          <t>26/11/2023 18:13</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>03/12/2023 15:58</t>
+          <t>03/12/2023 15:52</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-anadia/027ldLMR/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-lusitania-fc/Myvt03N2/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Varzim</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>3.65</v>
+        <v>1.71</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>4.02</v>
+        <v>1.66</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.33</v>
+        <v>3.58</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.57</v>
+        <v>3.69</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
@@ -11384,7 +11384,7 @@
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.08</v>
+        <v>5.13</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>1.93</v>
+        <v>5.65</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-lusitania-fc/Myvt03N2/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/varzim-ad-fafe/Sl9tbshF/</t>
         </is>
       </c>
     </row>
@@ -12809,71 +12809,71 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Amora</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>1.78</v>
+        <v>2.25</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>10/12/2023 21:11</t>
+          <t>10/12/2023 17:13</t>
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.78</v>
+        <v>2.49</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>17/12/2023 13:42</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>10/12/2023 21:11</t>
+          <t>10/12/2023 17:13</t>
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.74</v>
+        <v>3.52</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>17/12/2023 15:58</t>
+          <t>17/12/2023 14:53</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.36</v>
+        <v>3.08</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
-          <t>10/12/2023 21:11</t>
+          <t>10/12/2023 17:13</t>
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.56</v>
+        <v>2.79</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>17/12/2023 13:42</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-pero-pinheiro/pjJJCePb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-canelas-2010/hdWR9viR/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>2</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Caldas</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
       <c r="J136" t="n">
-        <v>4.06</v>
+        <v>6.29</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>10/12/2023 21:11</t>
+          <t>10/12/2023 17:13</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>4.83</v>
+        <v>4.68</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>17/12/2023 15:52</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.39</v>
+        <v>3.97</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>10/12/2023 21:11</t>
+          <t>10/12/2023 17:13</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.61</v>
+        <v>3.76</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>17/12/2023 15:52</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>10/12/2023 21:11</t>
+          <t>10/12/2023 17:13</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>17/12/2023 15:52</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-caldas-sc/C0R6Fcut/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-atletico-cp/EPNNBFv5/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.6</v>
+        <v>4.06</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>10/12/2023 17:13</t>
+          <t>10/12/2023 21:11</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.56</v>
+        <v>4.83</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>17/12/2023 15:58</t>
+          <t>17/12/2023 15:52</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>10/12/2023 17:13</t>
+          <t>10/12/2023 21:11</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>4.14</v>
+        <v>3.61</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>17/12/2023 15:58</t>
+          <t>17/12/2023 15:52</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>5.29</v>
+        <v>1.88</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>10/12/2023 17:13</t>
+          <t>10/12/2023 21:11</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>5.92</v>
+        <v>1.78</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>17/12/2023 15:58</t>
+          <t>17/12/2023 15:52</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-ad-fafe/KrYJB0ME/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-caldas-sc/C0R6Fcut/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Amora</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>2.25</v>
+        <v>1.78</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>10/12/2023 17:13</t>
+          <t>10/12/2023 21:11</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.49</v>
+        <v>1.78</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 13:42</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>10/12/2023 17:13</t>
+          <t>10/12/2023 21:11</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.52</v>
+        <v>3.74</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>17/12/2023 14:53</t>
+          <t>17/12/2023 15:58</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.08</v>
+        <v>4.36</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>10/12/2023 17:13</t>
+          <t>10/12/2023 21:11</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.79</v>
+        <v>4.56</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 13:42</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-canelas-2010/hdWR9viR/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/amora-pero-pinheiro/pjJJCePb/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139" t="n">
-        <v>6.29</v>
+        <v>1.6</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>4.68</v>
+        <v>1.56</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 15:58</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.97</v>
+        <v>3.72</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 15:58</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>1.49</v>
+        <v>5.29</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>1.76</v>
+        <v>5.92</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 15:58</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-atletico-cp/EPNNBFv5/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-ad-fafe/KrYJB0ME/</t>
         </is>
       </c>
     </row>
@@ -13426,6 +13426,190 @@
       <c r="V141" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-fc-felgueiras/2V5B1Gb7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45297.5</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Canelas 2010</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Varzim</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>30/12/2024 13:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:53</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>30/12/2024 13:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:36</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>30/12/2024 13:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:36</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-varzim/63C23xUf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45297.85416666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Lusitania FC</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:11</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>06/01/2024 20:23</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:11</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>06/01/2024 20:23</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>30/12/2024 21:11</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>06/01/2024 20:23</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-lusitania-fc/CtDb4IEl/</t>
         </is>
       </c>
     </row>

--- a/2023/portugal_liga-3_2023-2024.xlsx
+++ b/2023/portugal_liga-3_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V143"/>
+  <dimension ref="A1:V147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Felgueiras</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>2</v>
-      </c>
       <c r="J72" t="n">
-        <v>5.05</v>
+        <v>2.23</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>06/10/2023 20:05</t>
+          <t>06/10/2023 20:06</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>4.49</v>
+        <v>2.39</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>07/10/2023 14:15</t>
+          <t>07/10/2023 16:53</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.74</v>
+        <v>3.08</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>06/10/2023 20:05</t>
+          <t>06/10/2023 20:06</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.53</v>
+        <v>3.2</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>07/10/2023 14:15</t>
+          <t>07/10/2023 16:53</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>1.63</v>
+        <v>3.36</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>06/10/2023 20:05</t>
+          <t>06/10/2023 20:06</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>07/10/2023 14:15</t>
+          <t>07/10/2023 16:53</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-fc-felgueiras/pYHRpXHb/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-alverca/4h7HZLRm/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Felgueiras</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>3.13</v>
+        <v>5.05</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>06/10/2023 20:06</t>
+          <t>06/10/2023 20:05</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>3.18</v>
+        <v>4.49</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>07/10/2023 16:37</t>
+          <t>07/10/2023 14:15</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.09</v>
+        <v>3.74</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>06/10/2023 20:06</t>
+          <t>06/10/2023 20:05</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.09</v>
+        <v>3.53</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>07/10/2023 16:44</t>
+          <t>07/10/2023 14:15</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.34</v>
+        <v>1.63</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>06/10/2023 20:06</t>
+          <t>06/10/2023 20:05</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.46</v>
+        <v>1.85</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>07/10/2023 16:37</t>
+          <t>07/10/2023 14:15</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-atletico-cp/nHSjhUsF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sc-vianense-fc-felgueiras/pYHRpXHb/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.23</v>
+        <v>3.13</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.39</v>
+        <v>3.18</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>07/10/2023 16:53</t>
+          <t>07/10/2023 16:37</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.2</v>
+        <v>3.09</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>07/10/2023 16:53</t>
+          <t>07/10/2023 16:44</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.36</v>
+        <v>2.34</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.2</v>
+        <v>2.46</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>07/10/2023 16:53</t>
+          <t>07/10/2023 16:37</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-alverca/4h7HZLRm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/oliveira-hospital-atletico-cp/nHSjhUsF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Pero Pinheiro</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Sporting CP B</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>6.79</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="K83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>28/10/2023 18:13</t>
         </is>
       </c>
-      <c r="L83" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:34</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>29/10/2023 12:34</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:13</t>
-        </is>
-      </c>
       <c r="T83" t="n">
-        <v>3.18</v>
+        <v>1.48</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>29/10/2023 12:34</t>
+          <t>29/10/2023 15:41</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pero Pinheiro</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>SC Vianense</t>
         </is>
       </c>
       <c r="I84" t="n">
         <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>3.92</v>
+        <v>1.5</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>6.79</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.33</v>
+        <v>4.24</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.37</v>
+        <v>4.3</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>29/10/2023 15:42</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2</v>
+        <v>6.35</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.48</v>
+        <v>5.61</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>29/10/2023 15:41</t>
+          <t>29/10/2023 10:50</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-sporting-lisbon/j99TWJB6/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SC Vianense</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.5</v>
+        <v>2.14</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.56</v>
+        <v>2.58</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.24</v>
+        <v>3.27</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.3</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>6.35</v>
+        <v>3.55</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.61</v>
+        <v>2.83</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>29/10/2023 10:50</t>
+          <t>29/10/2023 12:25</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/braga-sc-vianense/b3WFOt1d/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.14</v>
+        <v>4.15</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.58</v>
+        <v>6.18</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.27</v>
+        <v>3.5</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>4.15</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 15:49</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.55</v>
+        <v>1.88</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.83</v>
+        <v>1.55</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>29/10/2023 12:25</t>
+          <t>29/10/2023 13:08</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-ad-fafe/QkY7Q2Wq/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Oliveira Hospital</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>4.15</v>
+        <v>3.47</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>6.18</v>
+        <v>2.92</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>4.15</v>
+        <v>3.36</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>29/10/2023 15:49</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.88</v>
+        <v>2.18</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.55</v>
+        <v>2.48</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>29/10/2023 13:08</t>
+          <t>29/10/2023 12:06</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-lusitania-fc/ED5vrV1H/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
         </is>
       </c>
     </row>
@@ -8485,22 +8485,22 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Oliveira Hospital</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>3.47</v>
+        <v>2.04</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.24</v>
+        <v>3.31</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.36</v>
+        <v>3.2</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>2.18</v>
+        <v>3.57</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>2.48</v>
+        <v>3.18</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>29/10/2023 12:06</t>
+          <t>29/10/2023 12:34</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-oliveira-hospital/YXbYVwRC/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-academica/x65PXad0/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Trofense</t>
+          <t>Academica</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>2.67</v>
+        <v>3.72</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>04/11/2023 18:01</t>
+          <t>04/11/2023 18:02</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.01</v>
+        <v>4.39</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.07</v>
+        <v>3.37</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>04/11/2023 18:01</t>
+          <t>04/11/2023 18:02</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.18</v>
+        <v>3.69</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.71</v>
+        <v>1.97</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>04/11/2023 18:01</t>
+          <t>04/11/2023 18:02</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.52</v>
+        <v>1.83</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>05/11/2023 15:59</t>
+          <t>05/11/2023 15:53</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-trofense/2X6FqrwM/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Atletico CP</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>Caldas</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:02</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
         <v>2.15</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O95" t="inlineStr">
         <is>
           <t>04/11/2023 18:02</t>
         </is>
       </c>
-      <c r="L95" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="M95" t="inlineStr">
+      <c r="P95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q95" t="inlineStr">
         <is>
           <t>05/11/2023 15:59</t>
         </is>
       </c>
-      <c r="N95" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O95" t="inlineStr">
+      <c r="R95" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S95" t="inlineStr">
         <is>
           <t>04/11/2023 18:02</t>
         </is>
       </c>
-      <c r="P95" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="Q95" t="inlineStr">
+      <c r="T95" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U95" t="inlineStr">
         <is>
           <t>05/11/2023 15:59</t>
         </is>
       </c>
-      <c r="R95" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>04/11/2023 18:02</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>05/11/2023 15:59</t>
-        </is>
-      </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Academica</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>3.72</v>
+        <v>1.54</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>4.39</v>
+        <v>1.4</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.37</v>
+        <v>4.12</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.69</v>
+        <v>4.81</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>1.97</v>
+        <v>5.34</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>1.83</v>
+        <v>7.75</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>05/11/2023 15:53</t>
+          <t>05/11/2023 15:51</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-academica/pCSjlLts/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Caldas</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.38</v>
+        <v>3.42</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,7 +9360,7 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.78</v>
+        <v>3.17</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.57</v>
+        <v>3.23</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-caldas-sc/xKpbnaBg/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-canelas-2010/K8HApONF/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Trofense</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>2</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Pero Pinheiro</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
       <c r="J98" t="n">
-        <v>1.54</v>
+        <v>2.67</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>04/11/2023 18:02</t>
+          <t>04/11/2023 18:01</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>1.4</v>
+        <v>3.01</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>4.12</v>
+        <v>3.07</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>04/11/2023 18:02</t>
+          <t>04/11/2023 18:01</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.81</v>
+        <v>3.18</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>5.34</v>
+        <v>2.71</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>04/11/2023 18:02</t>
+          <t>04/11/2023 18:01</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>7.75</v>
+        <v>2.52</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/11/2023 15:51</t>
+          <t>05/11/2023 15:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/covilha-pero-pinheiro/rcofmudm/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-trofense/2X6FqrwM/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>Sporting CP B</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Braga B</t>
+          <t>Covilha</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:33</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.27</v>
+        <v>3.38</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.24</v>
+        <v>3.33</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:33</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>3.98</v>
+        <v>3.28</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>06/11/2023 15:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>3.24</v>
+        <v>2.96</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>12/11/2023 15:33</t>
+          <t>12/11/2023 15:48</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-braga/tO5Jr2hS/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
         </is>
       </c>
     </row>
@@ -10141,7 +10141,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Canelas 2010</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="G106" t="n">
@@ -10149,63 +10149,63 @@
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sanjoanense</t>
+          <t>Anadia</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.69</v>
+        <v>2.16</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="N106" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>11/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
         <v>3.37</v>
       </c>
-      <c r="O106" t="inlineStr">
-        <is>
-          <t>05/11/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P106" t="n">
-        <v>3.83</v>
-      </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.93</v>
+        <v>3.61</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>05/11/2023 17:43</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>5.1</v>
+        <v>3.52</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>12/11/2023 15:54</t>
+          <t>12/11/2023 15:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AD Fafe</t>
+          <t>Canelas 2010</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,63 +10241,63 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Anadia</t>
+          <t>Sanjoanense</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.16</v>
+        <v>1.69</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.21</v>
+        <v>3.37</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.37</v>
+        <v>3.83</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.61</v>
+        <v>3.93</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>11/11/2023 15:12</t>
+          <t>05/11/2023 17:43</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.52</v>
+        <v>5.1</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>12/11/2023 15:51</t>
+          <t>12/11/2023 15:54</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/ad-fafe-anadia/8YkbyKp2/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/canelas-2010-sanjoanense/fVofx0Ve/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Sporting CP B</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Covilha</t>
+          <t>Braga B</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:33</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.38</v>
+        <v>3.27</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.33</v>
+        <v>3.24</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:33</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.28</v>
+        <v>3.98</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>06/11/2023 15:42</t>
+          <t>11/11/2023 15:12</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.96</v>
+        <v>3.24</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>12/11/2023 15:48</t>
+          <t>12/11/2023 15:33</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/sporting-lisbon-covilha/K2tJsyQO/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-braga/tO5Jr2hS/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>1º Dezembro</t>
+          <t>Lusitania FC</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Atletico CP</t>
+          <t>AD Fafe</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J136" t="n">
-        <v>6.29</v>
+        <v>1.6</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>4.68</v>
+        <v>1.56</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 15:58</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.97</v>
+        <v>3.72</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.76</v>
+        <v>4.14</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 15:58</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>1.49</v>
+        <v>5.29</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>1.76</v>
+        <v>5.92</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>17/12/2023 15:55</t>
+          <t>17/12/2023 15:58</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-atletico-cp/EPNNBFv5/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-ad-fafe/KrYJB0ME/</t>
         </is>
       </c>
     </row>
@@ -13177,22 +13177,22 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Lusitania FC</t>
+          <t>1º Dezembro</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>AD Fafe</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>3</v>
-      </c>
       <c r="J139" t="n">
-        <v>1.6</v>
+        <v>6.29</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.56</v>
+        <v>4.68</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>17/12/2023 15:58</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.72</v>
+        <v>3.97</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>4.14</v>
+        <v>3.76</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>17/12/2023 15:58</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>5.29</v>
+        <v>1.49</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,16 @@
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.92</v>
+        <v>1.76</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>17/12/2023 15:58</t>
+          <t>17/12/2023 15:55</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/portugal/liga-3/lusitania-fc-ad-fafe/KrYJB0ME/</t>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/1-dezembro-atletico-cp/EPNNBFv5/</t>
         </is>
       </c>
     </row>
@@ -13610,6 +13610,374 @@
       <c r="V143" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/portugal/liga-3/trofense-lusitania-fc/CtDb4IEl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Pero Pinheiro</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Oliveira Hospital</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:23</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:23</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:23</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/pero-pinheiro-oliveira-hospital/zuCW9g9H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Anadia</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>SC Vianense</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>07/01/2024 10:07</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>07/01/2024 12:01</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>07/01/2024 05:17</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/anadia-sc-vianense/K6G62dq1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Atletico CP</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>3</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Alverca</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:59</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/atletico-cp-alverca/pE163ino/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>portugal</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>liga-3</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45298.66666666666</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sanjoanense</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Braga B</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>4</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:52</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:52</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>31/12/2024 17:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>07/01/2024 15:52</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/portugal/liga-3/sanjoanense-braga/tM4F0zED/</t>
         </is>
       </c>
     </row>
